--- a/biology/Médecine/Charles_Sabin_Taft/Charles_Sabin_Taft.xlsx
+++ b/biology/Médecine/Charles_Sabin_Taft/Charles_Sabin_Taft.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Sabin Taft (né en août 1835 – mort le 18 décembre 1900) était un médecin qui se trouvait sur les lieux lors de l'assassinat d'Abraham Lincoln le 14 avril 1865, au Théâtre Ford à Washington, D.C.,  et qui fut amené à soigner le président peu après l'attentat.
 </t>
@@ -511,10 +523,12 @@
           <t>Assassinat d'Abraham Lincoln</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En avril 1865, Taft était dans l'assistance présente à la représentation de Our American Cousin, lorsque John Wilkes Booth fit feu sur Lincoln. 
-Taft fut soit le deuxième, soit le troisième médecin à arriver aux côtés du président après le coup de feu, le premier à arriver étant le tout jeune chirurgien Charles Leale. Taft fut physiquement hissé jusqu'à la loge du président à partir de la scène, située juste en dessous[1].
+Taft fut soit le deuxième, soit le troisième médecin à arriver aux côtés du président après le coup de feu, le premier à arriver étant le tout jeune chirurgien Charles Leale. Taft fut physiquement hissé jusqu'à la loge du président à partir de la scène, située juste en dessous.
 </t>
         </is>
       </c>
